--- a/output/carin-rtpbc-pharmacy-Organization.xlsx
+++ b/output/carin-rtpbc-pharmacy-Organization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="436">
   <si>
     <t>Path</t>
   </si>
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -171,7 +171,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -203,6 +203,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>Organization.implicitRules</t>
   </si>
   <si>
@@ -325,6 +329,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Organization.modifierExtension</t>
   </si>
   <si>
@@ -344,23 +352,23 @@
     <t>Organization.identifier</t>
   </si>
   <si>
-    <t>Mandatory NPI or NCPDP ID</t>
+    <t>Pharmacy Identifier</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
-  </si>
-  <si>
-    <t>TODO: Specify that either NPI or NCPDP ID must be present</t>
+    <t>The pharmacy's identifier (organizational NPI or NCPDP ID)</t>
+  </si>
+  <si>
+    <t>Either an NPI or NCPDP ID must be present</t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
+    <t xml:space="preserve">pattern:$this}
 </t>
   </si>
   <si>
@@ -383,17 +391,7 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>pharmacy-npi</t>
-  </si>
-  <si>
-    <t>Identifies this organization  across multiple systems</t>
-  </si>
-  <si>
     <t>Organization.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -445,7 +443,7 @@
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -503,9 +501,6 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/sid/us-npi</t>
-  </si>
-  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -601,7 +596,35 @@
     <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
-    <t>pharmacy-ncpdp-id</t>
+    <t>pharmacyNpi</t>
+  </si>
+  <si>
+    <t>Pharmacy's organizational NPI</t>
+  </si>
+  <si>
+    <t>The pharmacy's organizational NPI</t>
+  </si>
+  <si>
+    <t>Populate with the organizational NPI that most specifically represents the intended pharmacy location</t>
+  </si>
+  <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://hl7.org/fhir/sid/us-npi"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
+    <t>pharmacyNcpdpId</t>
+  </si>
+  <si>
+    <t>Pharmacy's NCPDP ID</t>
+  </si>
+  <si>
+    <t>The pharmacy's NCPDP ID</t>
+  </si>
+  <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://example.org/ncpdpid/placeholder"/&gt;
+&lt;/valueIdentifier&gt;</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -677,7 +700,7 @@
     <t>Organization.name</t>
   </si>
   <si>
-    <t>Name used for the organization</t>
+    <t>Pharmacy Name</t>
   </si>
   <si>
     <t>A name associated with the organization.</t>
@@ -717,17 +740,17 @@
     <t>Organization.telecom</t>
   </si>
   <si>
+    <t>Pharmacy Telephone</t>
+  </si>
+  <si>
     <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
-    <t>A contact detail for the organization</t>
-  </si>
-  <si>
-    <t>A contact detail for the organization.</t>
-  </si>
-  <si>
-    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
+    <t>Pharmacy telephone number for patients, customers</t>
+  </si>
+  <si>
+    <t>Must Support when the pharmacy is included in the RTPBC response (ClaimResponse). "Must support" means that (a) the responding payer/PBM can provide a patient-appropriate telephone number for covered pharmacies and (b) the patient application can make the phone number available to the user as it deems appropriate</t>
   </si>
   <si>
     <t>Human contact for the organization.</t>
@@ -737,8 +760,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}
-</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>ORC-22?</t>
@@ -771,7 +794,7 @@
     <t>Telecommunications form for contact point.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
   </si>
   <si>
     <t>ContactPoint.system</t>
@@ -832,7 +855,7 @@
     <t>Use of contact point.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
   </si>
   <si>
     <t>ContactPoint.use</t>
@@ -884,17 +907,17 @@
     <t>Organization.address</t>
   </si>
   <si>
+    <t>Pharmacy Address</t>
+  </si>
+  <si>
     <t xml:space="preserve">Address
 </t>
   </si>
   <si>
-    <t>An address for the organization</t>
-  </si>
-  <si>
-    <t>An address for the organization.</t>
-  </si>
-  <si>
-    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
+    <t>The pharmacy store address</t>
+  </si>
+  <si>
+    <t>Must Support when the pharmacy is included in the RTPBC response (ClaimResponse). "Must support" means that (a) the responding payer/PBM can provide pharmacy address information for covered pharmacies that the patient may have a need to contact or visit (e.g., a retail pharmacy location) and (b) the patient application can make the address available to the user as it deems appropriate</t>
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
@@ -904,17 +927,297 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>ORC-23?</t>
+  </si>
+  <si>
+    <t>.address</t>
+  </si>
+  <si>
+    <t>./PrimaryAddress and ./OtherAddresses</t>
+  </si>
+  <si>
+    <t>Organization.address.id</t>
+  </si>
+  <si>
+    <t>Organization.address.extension</t>
+  </si>
+  <si>
+    <t>Organization.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>XAD.7</t>
+  </si>
+  <si>
+    <t>./AddressPurpose</t>
+  </si>
+  <si>
+    <t>Organization.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>XAD.18</t>
+  </si>
+  <si>
+    <t>Organization.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>Organization.address.line</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
+    <t>./StreetAddress (newline delimitted)</t>
+  </si>
+  <si>
+    <t>Organization.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
 </t>
   </si>
   <si>
-    <t>ORC-23?</t>
-  </si>
-  <si>
-    <t>.address</t>
-  </si>
-  <si>
-    <t>./PrimaryAddress and ./OtherAddresses</t>
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>XAD.3</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>./Jurisdiction</t>
+  </si>
+  <si>
+    <t>Organization.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>XAD.9</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
+    <t>Organization.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>US Postal State Codes</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>XAD.4</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
+    <t>./Region</t>
+  </si>
+  <si>
+    <t>Organization.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>XAD.5</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
+    <t>./PostalIdentificationCode</t>
+  </si>
+  <si>
+    <t>Organization.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>Populate when not a US address</t>
+  </si>
+  <si>
+    <t>ISO 2-Character Country Codes</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>XAD.6</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
+    <t>./Country</t>
+  </si>
+  <si>
+    <t>Organization.address.period</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23T00:00:00-05:00"/&gt;
+  &lt;end value="2010-07-01T00:00:00-05:00"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>XAD.12 / XAD.13 + XAD.14</t>
   </si>
   <si>
     <t>Organization.partOf</t>
@@ -949,10 +1252,6 @@
   </si>
   <si>
     <t>Need to keep track of assigned contact points within bigger organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>.contactParty</t>
@@ -1222,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM52"/>
+  <dimension ref="A1:AM64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1232,9 +1531,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="36.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.46875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.43359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="26.15234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="28.0546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -1266,7 +1565,7 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="32.2421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="102.75" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="99.6875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="211.14453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
@@ -1705,7 +2004,7 @@
         <v>40</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>40</v>
@@ -1722,7 +2021,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1745,16 +2044,16 @@
         <v>50</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1804,7 +2103,7 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
@@ -1816,7 +2115,7 @@
         <v>40</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>40</v>
@@ -1833,7 +2132,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1856,16 +2155,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1891,13 +2190,13 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>40</v>
@@ -1915,7 +2214,7 @@
         <v>40</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
@@ -1927,7 +2226,7 @@
         <v>40</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>40</v>
@@ -1944,11 +2243,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1967,16 +2266,16 @@
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2026,7 +2325,7 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
@@ -2038,13 +2337,13 @@
         <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>40</v>
@@ -2055,11 +2354,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2078,16 +2377,16 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2137,7 +2436,7 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -2155,7 +2454,7 @@
         <v>40</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>40</v>
@@ -2166,11 +2465,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2189,16 +2488,16 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2248,7 +2547,7 @@
         <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -2260,13 +2559,13 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>40</v>
@@ -2277,11 +2576,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2300,19 +2599,19 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2361,7 +2660,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2373,13 +2672,13 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>40</v>
@@ -2390,14 +2689,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s" s="2">
         <v>49</v>
@@ -2415,19 +2714,19 @@
         <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2464,17 +2763,17 @@
         <v>40</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2483,31 +2782,29 @@
         <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2525,21 +2822,19 @@
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>109</v>
-      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2587,47 +2882,47 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
@@ -2639,15 +2934,17 @@
         <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2684,37 +2981,37 @@
         <v>40</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2725,41 +3022,43 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
       </c>
@@ -2783,49 +3082,49 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2836,7 +3135,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2853,25 +3152,25 @@
         <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -2896,13 +3195,13 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>40</v>
@@ -2920,26 +3219,26 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
       </c>
@@ -2947,9 +3246,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2957,13 +3256,13 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
@@ -2972,19 +3271,19 @@
         <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2997,7 +3296,7 @@
         <v>40</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>40</v>
@@ -3009,13 +3308,13 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
@@ -3033,7 +3332,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3045,16 +3344,16 @@
         <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -3062,7 +3361,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3070,7 +3369,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>49</v>
@@ -3085,32 +3384,30 @@
         <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>40</v>
@@ -3146,7 +3443,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3158,16 +3455,16 @@
         <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3175,7 +3472,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3198,17 +3495,15 @@
         <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3221,7 +3516,7 @@
         <v>40</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>40</v>
@@ -3257,7 +3552,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3269,16 +3564,16 @@
         <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3286,7 +3581,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3309,15 +3604,17 @@
         <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3366,7 +3663,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3378,30 +3675,34 @@
         <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="E20" t="s" s="2">
         <v>41</v>
       </c>
@@ -3409,7 +3710,7 @@
         <v>49</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
@@ -3418,18 +3719,18 @@
         <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3438,7 +3739,7 @@
         <v>40</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>40</v>
@@ -3477,44 +3778,46 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>40</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="E21" t="s" s="2">
         <v>41</v>
       </c>
@@ -3522,7 +3825,7 @@
         <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>40</v>
@@ -3531,17 +3834,17 @@
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3551,7 +3854,7 @@
         <v>40</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>40</v>
@@ -3590,7 +3893,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3599,22 +3902,22 @@
         <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" hidden="true">
@@ -3642,13 +3945,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3699,25 +4002,25 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3728,11 +4031,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3751,16 +4054,16 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3798,19 +4101,19 @@
         <v>40</v>
       </c>
       <c r="AA23" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AB23" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AB23" t="s" s="2">
+      <c r="AC23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3822,13 +4125,13 @@
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3839,7 +4142,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3862,19 +4165,19 @@
         <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3899,49 +4202,49 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3952,7 +4255,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3975,19 +4278,19 @@
         <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4012,49 +4315,49 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="AK25" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -4065,7 +4368,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4088,19 +4391,19 @@
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4113,64 +4416,64 @@
         <v>40</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="T26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AK26" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -4178,7 +4481,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4201,16 +4504,16 @@
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4224,64 +4527,64 @@
         <v>40</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="T27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4289,7 +4592,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4312,13 +4615,13 @@
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4369,28 +4672,28 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4398,7 +4701,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4421,16 +4724,16 @@
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4480,28 +4783,28 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4509,7 +4812,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4532,71 +4835,71 @@
         <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P30" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Q30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4607,24 +4910,24 @@
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4647,19 +4950,19 @@
         <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4684,31 +4987,31 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4720,30 +5023,32 @@
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="E32" t="s" s="2">
         <v>49</v>
       </c>
@@ -4751,7 +5056,7 @@
         <v>49</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>40</v>
@@ -4760,19 +5065,19 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4821,7 +5126,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4830,19 +5135,19 @@
         <v>49</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -4850,7 +5155,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4873,19 +5178,19 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4934,7 +5239,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4946,13 +5251,13 @@
         <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -4961,23 +5266,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="E34" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>40</v>
@@ -4986,19 +5293,19 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -5047,7 +5354,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5056,19 +5363,19 @@
         <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -5076,7 +5383,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5099,13 +5406,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5156,25 +5463,25 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -5185,11 +5492,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5208,16 +5515,16 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5255,19 +5562,19 @@
         <v>40</v>
       </c>
       <c r="AA36" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AB36" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AB36" t="s" s="2">
+      <c r="AC36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5279,13 +5586,13 @@
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -5294,9 +5601,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5304,13 +5611,13 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -5319,13 +5626,13 @@
         <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5334,7 +5641,7 @@
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>40</v>
@@ -5352,13 +5659,13 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
@@ -5376,7 +5683,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5385,27 +5692,27 @@
         <v>49</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5419,7 +5726,7 @@
         <v>49</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>40</v>
@@ -5428,19 +5735,19 @@
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5489,7 +5796,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5501,16 +5808,16 @@
         <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5518,7 +5825,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5541,19 +5848,19 @@
         <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5578,13 +5885,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5602,7 +5909,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5614,16 +5921,16 @@
         <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5631,7 +5938,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5654,16 +5961,16 @@
         <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5713,7 +6020,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5725,13 +6032,13 @@
         <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -5742,7 +6049,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5765,13 +6072,13 @@
         <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5822,7 +6129,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5834,30 +6141,32 @@
         <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="E42" t="s" s="2">
         <v>41</v>
       </c>
@@ -5865,7 +6174,7 @@
         <v>42</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>40</v>
@@ -5874,19 +6183,19 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -5935,7 +6244,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5944,19 +6253,19 @@
         <v>42</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -5964,7 +6273,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5984,21 +6293,19 @@
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>291</v>
+        <v>121</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6046,7 +6353,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>289</v>
+        <v>122</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6061,13 +6368,13 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>293</v>
+        <v>123</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6075,11 +6382,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6098,20 +6405,18 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>295</v>
+        <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>296</v>
+        <v>96</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>297</v>
+        <v>125</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6147,19 +6452,19 @@
         <v>40</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>294</v>
+        <v>128</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6171,13 +6476,13 @@
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>301</v>
+        <v>123</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -6188,7 +6493,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6205,22 +6510,26 @@
         <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>121</v>
+        <v>298</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6232,7 +6541,7 @@
         <v>40</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>40</v>
@@ -6244,13 +6553,13 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
@@ -6268,7 +6577,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6280,16 +6589,16 @@
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>124</v>
+        <v>271</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6297,18 +6606,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
@@ -6317,19 +6626,19 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>95</v>
+        <v>309</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>126</v>
+        <v>310</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>97</v>
+        <v>311</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6343,7 +6652,7 @@
         <v>40</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>40</v>
@@ -6355,13 +6664,13 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
@@ -6379,25 +6688,25 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>129</v>
+        <v>315</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>40</v>
+        <v>316</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>124</v>
+        <v>271</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
@@ -6408,42 +6717,42 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>97</v>
+        <v>320</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>102</v>
+        <v>321</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6456,7 +6765,7 @@
         <v>40</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>40</v>
+        <v>322</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>40</v>
@@ -6492,25 +6801,25 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>40</v>
+        <v>324</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>91</v>
+        <v>325</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6519,9 +6828,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6532,30 +6841,28 @@
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>312</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6567,7 +6874,7 @@
         <v>40</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>40</v>
@@ -6579,13 +6886,13 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>313</v>
+        <v>40</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -6603,40 +6910,40 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6646,27 +6953,25 @@
         <v>49</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>317</v>
+        <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6678,7 +6983,7 @@
         <v>40</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>40</v>
@@ -6714,7 +7019,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6726,16 +7031,16 @@
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>40</v>
+        <v>342</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -6743,18 +7048,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>40</v>
+        <v>344</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
@@ -6763,21 +7068,21 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6789,7 +7094,7 @@
         <v>40</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>40</v>
+        <v>348</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>40</v>
@@ -6825,25 +7130,25 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6852,13 +7157,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>40</v>
+        <v>353</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6868,27 +7173,25 @@
         <v>49</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>279</v>
+        <v>51</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
       </c>
@@ -6912,10 +7215,10 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="Y51" t="s" s="2">
         <v>40</v>
@@ -6936,7 +7239,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6948,58 +7251,56 @@
         <v>40</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>336</v>
+        <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7011,7 +7312,7 @@
         <v>40</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>40</v>
+        <v>365</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>40</v>
@@ -7047,35 +7348,1369 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F56" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM52" t="s" s="2">
+      <c r="G56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM52">
+  <autoFilter ref="A1:AM64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7085,7 +8720,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/carin-rtpbc-pharmacy-Organization.xlsx
+++ b/output/carin-rtpbc-pharmacy-Organization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="340">
   <si>
     <t>Path</t>
   </si>
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -169,231 +169,233 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Organization.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t>Organization.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Organization.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Organization.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Organization.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Organization.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Organization.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Organization.identifier</t>
+  </si>
+  <si>
+    <t>Mandatory NPI or NCPDP ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
+  </si>
+  <si>
+    <t>TODO: Specify that either NPI or NCPDP ID must be present</t>
+  </si>
+  <si>
+    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-1
+</t>
+  </si>
+  <si>
+    <t>XON.10 / XON.3</t>
+  </si>
+  <si>
+    <t>.scopes[Role](classCode=IDENT)</t>
+  </si>
+  <si>
+    <t>./Identifiers</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>pharmacy-npi</t>
+  </si>
+  <si>
+    <t>Identifies this organization  across multiple systems</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Organization.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Organization.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Organization.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Organization.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Organization.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Organization.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Organization.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Organization.identifier</t>
-  </si>
-  <si>
-    <t>Pharmacy Identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>The pharmacy's identifier (organizational NPI or NCPDP ID)</t>
-  </si>
-  <si>
-    <t>Either an NPI or NCPDP ID must be present</t>
-  </si>
-  <si>
-    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-1
-</t>
-  </si>
-  <si>
-    <t>XON.10 / XON.3</t>
-  </si>
-  <si>
-    <t>.scopes[Role](classCode=IDENT)</t>
-  </si>
-  <si>
-    <t>./Identifiers</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Organization.identifier.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -443,7 +445,7 @@
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -501,6 +503,9 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/sid/us-npi</t>
+  </si>
+  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -596,35 +601,7 @@
     <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
-    <t>pharmacyNpi</t>
-  </si>
-  <si>
-    <t>Pharmacy's organizational NPI</t>
-  </si>
-  <si>
-    <t>The pharmacy's organizational NPI</t>
-  </si>
-  <si>
-    <t>Populate with the organizational NPI that most specifically represents the intended pharmacy location</t>
-  </si>
-  <si>
-    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://hl7.org/fhir/sid/us-npi"/&gt;
-&lt;/valueIdentifier&gt;</t>
-  </si>
-  <si>
-    <t>pharmacyNcpdpId</t>
-  </si>
-  <si>
-    <t>Pharmacy's NCPDP ID</t>
-  </si>
-  <si>
-    <t>The pharmacy's NCPDP ID</t>
-  </si>
-  <si>
-    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://example.org/ncpdpid/placeholder"/&gt;
-&lt;/valueIdentifier&gt;</t>
+    <t>pharmacy-ncpdp-id</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -700,7 +677,7 @@
     <t>Organization.name</t>
   </si>
   <si>
-    <t>Pharmacy Name</t>
+    <t>Name used for the organization</t>
   </si>
   <si>
     <t>A name associated with the organization.</t>
@@ -740,17 +717,17 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t>Pharmacy Telephone</t>
-  </si>
-  <si>
     <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
-    <t>Pharmacy telephone number for patients, customers</t>
-  </si>
-  <si>
-    <t>Must Support when the pharmacy is included in the RTPBC response (ClaimResponse). "Must support" means that (a) the responding payer/PBM can provide a patient-appropriate telephone number for covered pharmacies and (b) the patient application can make the phone number available to the user as it deems appropriate</t>
+    <t>A contact detail for the organization</t>
+  </si>
+  <si>
+    <t>A contact detail for the organization.</t>
+  </si>
+  <si>
+    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
   </si>
   <si>
     <t>Human contact for the organization.</t>
@@ -760,8 +737,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+    <t xml:space="preserve">org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}
+</t>
   </si>
   <si>
     <t>ORC-22?</t>
@@ -794,7 +771,7 @@
     <t>Telecommunications form for contact point.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.0</t>
   </si>
   <si>
     <t>ContactPoint.system</t>
@@ -855,7 +832,7 @@
     <t>Use of contact point.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.0</t>
   </si>
   <si>
     <t>ContactPoint.use</t>
@@ -907,17 +884,17 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t>Pharmacy Address</t>
-  </si>
-  <si>
     <t xml:space="preserve">Address
 </t>
   </si>
   <si>
-    <t>The pharmacy store address</t>
-  </si>
-  <si>
-    <t>Must Support when the pharmacy is included in the RTPBC response (ClaimResponse). "Must support" means that (a) the responding payer/PBM can provide pharmacy address information for covered pharmacies that the patient may have a need to contact or visit (e.g., a retail pharmacy location) and (b) the patient application can make the address available to the user as it deems appropriate</t>
+    <t>An address for the organization</t>
+  </si>
+  <si>
+    <t>An address for the organization.</t>
+  </si>
+  <si>
+    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
@@ -927,8 +904,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+    <t xml:space="preserve">org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}
+</t>
   </si>
   <si>
     <t>ORC-23?</t>
@@ -938,286 +915,6 @@
   </si>
   <si>
     <t>./PrimaryAddress and ./OtherAddresses</t>
-  </si>
-  <si>
-    <t>Organization.address.id</t>
-  </si>
-  <si>
-    <t>Organization.address.extension</t>
-  </si>
-  <si>
-    <t>Organization.address.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.use</t>
-  </si>
-  <si>
-    <t>XAD.7</t>
-  </si>
-  <si>
-    <t>./AddressPurpose</t>
-  </si>
-  <si>
-    <t>Organization.address.type</t>
-  </si>
-  <si>
-    <t>postal | physical | both</t>
-  </si>
-  <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>The type of an address (physical / postal).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.type</t>
-  </si>
-  <si>
-    <t>XAD.18</t>
-  </si>
-  <si>
-    <t>Organization.address.text</t>
-  </si>
-  <si>
-    <t>Text representation of the address</t>
-  </si>
-  <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street, Erewhon 9132</t>
-  </si>
-  <si>
-    <t>Address.text</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
-  </si>
-  <si>
-    <t>./formatted</t>
-  </si>
-  <si>
-    <t>Organization.address.line</t>
-  </si>
-  <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.</t>
-  </si>
-  <si>
-    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street</t>
-  </si>
-  <si>
-    <t>Address.line</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = AL]</t>
-  </si>
-  <si>
-    <t>./StreetAddress (newline delimitted)</t>
-  </si>
-  <si>
-    <t>Organization.address.city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municpality
-</t>
-  </si>
-  <si>
-    <t>Name of city, town etc.</t>
-  </si>
-  <si>
-    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
-  </si>
-  <si>
-    <t>Erewhon</t>
-  </si>
-  <si>
-    <t>Address.city</t>
-  </si>
-  <si>
-    <t>XAD.3</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CTY]</t>
-  </si>
-  <si>
-    <t>./Jurisdiction</t>
-  </si>
-  <si>
-    <t>Organization.address.district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">County
-</t>
-  </si>
-  <si>
-    <t>District name (aka county)</t>
-  </si>
-  <si>
-    <t>The name of the administrative area (county).</t>
-  </si>
-  <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Address.district</t>
-  </si>
-  <si>
-    <t>XAD.9</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
-    <t>Organization.address.state</t>
-  </si>
-  <si>
-    <t>Province
-Territory</t>
-  </si>
-  <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
-  </si>
-  <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
-  </si>
-  <si>
-    <t>US Postal State Codes</t>
-  </si>
-  <si>
-    <t>Address.state</t>
-  </si>
-  <si>
-    <t>XAD.4</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = STA]</t>
-  </si>
-  <si>
-    <t>./Region</t>
-  </si>
-  <si>
-    <t>Organization.address.postalCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip
-</t>
-  </si>
-  <si>
-    <t>Postal code for area</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
-  </si>
-  <si>
-    <t>9132</t>
-  </si>
-  <si>
-    <t>Address.postalCode</t>
-  </si>
-  <si>
-    <t>XAD.5</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = ZIP]</t>
-  </si>
-  <si>
-    <t>./PostalIdentificationCode</t>
-  </si>
-  <si>
-    <t>Organization.address.country</t>
-  </si>
-  <si>
-    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
-  </si>
-  <si>
-    <t>Country - a nation as commonly understood or generally accepted.</t>
-  </si>
-  <si>
-    <t>Populate when not a US address</t>
-  </si>
-  <si>
-    <t>ISO 2-Character Country Codes</t>
-  </si>
-  <si>
-    <t>Address.country</t>
-  </si>
-  <si>
-    <t>XAD.6</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT]</t>
-  </si>
-  <si>
-    <t>./Country</t>
-  </si>
-  <si>
-    <t>Organization.address.period</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>Allows addresses to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23T00:00:00-05:00"/&gt;
-  &lt;end value="2010-07-01T00:00:00-05:00"/&gt;
-&lt;/valuePeriod&gt;</t>
-  </si>
-  <si>
-    <t>Address.period</t>
-  </si>
-  <si>
-    <t>XAD.12 / XAD.13 + XAD.14</t>
   </si>
   <si>
     <t>Organization.partOf</t>
@@ -1252,6 +949,10 @@
   </si>
   <si>
     <t>Need to keep track of assigned contact points within bigger organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>.contactParty</t>
@@ -1521,7 +1222,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM64"/>
+  <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1531,9 +1232,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="36.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.43359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.46875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="28.0546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="26.15234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -1565,7 +1266,7 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="102.75" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="32.2421875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="99.6875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="211.14453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
@@ -2004,7 +1705,7 @@
         <v>40</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>40</v>
@@ -2021,7 +1722,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2044,16 +1745,16 @@
         <v>50</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2103,7 +1804,7 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
@@ -2115,7 +1816,7 @@
         <v>40</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>40</v>
@@ -2132,7 +1833,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2155,16 +1856,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2190,31 +1891,31 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
@@ -2226,7 +1927,7 @@
         <v>40</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>40</v>
@@ -2243,11 +1944,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2266,16 +1967,16 @@
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2325,7 +2026,7 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
@@ -2337,13 +2038,13 @@
         <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>40</v>
@@ -2354,11 +2055,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2377,16 +2078,16 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2436,7 +2137,7 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -2454,7 +2155,7 @@
         <v>40</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>40</v>
@@ -2465,11 +2166,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2488,16 +2189,16 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2547,7 +2248,7 @@
         <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -2559,13 +2260,13 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>40</v>
@@ -2576,11 +2277,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2599,19 +2300,19 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2660,7 +2361,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2672,13 +2373,13 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>40</v>
@@ -2689,14 +2390,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s" s="2">
         <v>49</v>
@@ -2714,19 +2415,19 @@
         <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2763,17 +2464,17 @@
         <v>40</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2782,29 +2483,31 @@
         <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AI11" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2822,19 +2525,21 @@
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2882,47 +2587,47 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
@@ -2934,17 +2639,15 @@
         <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2981,37 +2684,37 @@
         <v>40</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -3022,43 +2725,41 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>40</v>
       </c>
@@ -3082,49 +2783,49 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -3135,7 +2836,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3152,25 +2853,25 @@
         <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -3195,13 +2896,13 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>40</v>
@@ -3219,7 +2920,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3231,13 +2932,13 @@
         <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -3246,9 +2947,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3256,13 +2957,13 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
@@ -3271,19 +2972,19 @@
         <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -3296,7 +2997,7 @@
         <v>40</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>40</v>
@@ -3308,13 +3009,13 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
@@ -3332,7 +3033,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3344,16 +3045,16 @@
         <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -3361,7 +3062,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3369,7 +3070,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>49</v>
@@ -3384,30 +3085,32 @@
         <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>40</v>
@@ -3443,7 +3146,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3455,16 +3158,16 @@
         <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3472,7 +3175,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3495,15 +3198,17 @@
         <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3516,7 +3221,7 @@
         <v>40</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>40</v>
@@ -3552,7 +3257,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3564,16 +3269,16 @@
         <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3581,7 +3286,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3604,17 +3309,15 @@
         <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3663,7 +3366,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3675,34 +3378,30 @@
         <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D20" t="s" s="2">
-        <v>187</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>41</v>
       </c>
@@ -3710,7 +3409,7 @@
         <v>49</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
@@ -3719,18 +3418,18 @@
         <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3739,7 +3438,7 @@
         <v>40</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>40</v>
@@ -3778,46 +3477,44 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>118</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D21" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>41</v>
       </c>
@@ -3825,7 +3522,7 @@
         <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>40</v>
@@ -3834,17 +3531,17 @@
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3854,7 +3551,7 @@
         <v>40</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>40</v>
@@ -3893,7 +3590,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3902,22 +3599,22 @@
         <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AI21" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="22" hidden="true">
@@ -3945,13 +3642,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4002,7 +3699,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -4020,7 +3717,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -4031,11 +3728,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4054,16 +3751,16 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="L23" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4101,19 +3798,19 @@
         <v>40</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4125,13 +3822,13 @@
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -4142,7 +3839,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4165,19 +3862,19 @@
         <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4202,13 +3899,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -4226,7 +3923,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4238,13 +3935,13 @@
         <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -4255,7 +3952,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4278,19 +3975,19 @@
         <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4315,13 +4012,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -4339,7 +4036,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4351,13 +4048,13 @@
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -4368,7 +4065,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4391,19 +4088,19 @@
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4416,7 +4113,7 @@
         <v>40</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>40</v>
@@ -4452,7 +4149,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4464,16 +4161,16 @@
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -4481,7 +4178,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4504,16 +4201,16 @@
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4527,7 +4224,7 @@
         <v>40</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>40</v>
@@ -4563,7 +4260,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4575,16 +4272,16 @@
         <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4592,7 +4289,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4615,13 +4312,13 @@
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4672,7 +4369,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4684,16 +4381,16 @@
         <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4701,7 +4398,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4724,16 +4421,16 @@
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4783,7 +4480,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4795,16 +4492,16 @@
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4812,7 +4509,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4835,25 +4532,25 @@
         <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q30" t="s" s="2">
         <v>40</v>
@@ -4898,7 +4595,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4910,24 +4607,24 @@
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4950,19 +4647,19 @@
         <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4987,13 +4684,13 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
@@ -5011,7 +4708,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5023,32 +4720,30 @@
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D32" t="s" s="2">
-        <v>218</v>
-      </c>
+      <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>49</v>
       </c>
@@ -5056,7 +4751,7 @@
         <v>49</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>40</v>
@@ -5065,19 +4760,19 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -5126,7 +4821,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5135,19 +4830,19 @@
         <v>49</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -5155,7 +4850,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5178,19 +4873,19 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -5239,7 +4934,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5251,13 +4946,13 @@
         <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -5266,25 +4961,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D34" t="s" s="2">
-        <v>231</v>
-      </c>
+      <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>40</v>
@@ -5293,19 +4986,19 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -5354,7 +5047,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5363,19 +5056,19 @@
         <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -5383,7 +5076,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5406,13 +5099,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5463,7 +5156,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5481,7 +5174,7 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -5492,11 +5185,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5515,16 +5208,16 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="L36" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5562,19 +5255,19 @@
         <v>40</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5586,13 +5279,13 @@
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -5601,9 +5294,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5611,13 +5304,13 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -5626,13 +5319,13 @@
         <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5641,7 +5334,7 @@
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>40</v>
@@ -5659,13 +5352,13 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
@@ -5683,7 +5376,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5692,27 +5385,27 @@
         <v>49</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5726,7 +5419,7 @@
         <v>49</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>40</v>
@@ -5735,19 +5428,19 @@
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5796,7 +5489,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5808,16 +5501,16 @@
         <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5825,7 +5518,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5848,19 +5541,19 @@
         <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5885,13 +5578,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5909,7 +5602,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5921,16 +5614,16 @@
         <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5938,7 +5631,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5961,16 +5654,16 @@
         <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6020,7 +5713,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6032,13 +5725,13 @@
         <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -6049,7 +5742,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6072,13 +5765,13 @@
         <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6129,7 +5822,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6141,32 +5834,30 @@
         <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D42" t="s" s="2">
-        <v>285</v>
-      </c>
+      <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>41</v>
       </c>
@@ -6174,7 +5865,7 @@
         <v>42</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>40</v>
@@ -6183,19 +5874,19 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -6244,7 +5935,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6253,19 +5944,19 @@
         <v>42</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -6273,7 +5964,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6293,19 +5984,21 @@
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>121</v>
+        <v>291</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6353,7 +6046,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>122</v>
+        <v>289</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6368,13 +6061,13 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6382,11 +6075,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6405,18 +6098,20 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>96</v>
+        <v>296</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>125</v>
+        <v>297</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6452,19 +6147,19 @@
         <v>40</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>128</v>
+        <v>294</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6476,13 +6171,13 @@
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>123</v>
+        <v>301</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -6493,7 +6188,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6510,26 +6205,22 @@
         <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>298</v>
+        <v>121</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6541,7 +6232,7 @@
         <v>40</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>302</v>
+        <v>40</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>40</v>
@@ -6553,13 +6244,13 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>303</v>
+        <v>40</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>304</v>
+        <v>40</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
@@ -6577,7 +6268,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>305</v>
+        <v>123</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6589,16 +6280,16 @@
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>271</v>
+        <v>124</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6606,18 +6297,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
@@ -6626,19 +6317,19 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>309</v>
+        <v>95</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>310</v>
+        <v>126</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>311</v>
+        <v>97</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6652,7 +6343,7 @@
         <v>40</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>312</v>
+        <v>40</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>40</v>
@@ -6664,13 +6355,13 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>313</v>
+        <v>40</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
@@ -6688,25 +6379,25 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>315</v>
+        <v>129</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>316</v>
+        <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>271</v>
+        <v>124</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
@@ -6717,42 +6408,42 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>320</v>
+        <v>97</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>321</v>
+        <v>102</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6765,7 +6456,7 @@
         <v>40</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>322</v>
+        <v>40</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>40</v>
@@ -6801,25 +6492,25 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>325</v>
+        <v>91</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6828,9 +6519,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6841,28 +6532,30 @@
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6874,7 +6567,7 @@
         <v>40</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>329</v>
+        <v>40</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>40</v>
@@ -6886,13 +6579,13 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -6910,40 +6603,40 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>335</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6953,25 +6646,27 @@
         <v>49</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>51</v>
+        <v>317</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6983,7 +6678,7 @@
         <v>40</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>338</v>
+        <v>40</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>40</v>
@@ -7019,7 +6714,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7031,16 +6726,16 @@
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>342</v>
+        <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -7048,18 +6743,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
@@ -7068,21 +6763,21 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
@@ -7094,7 +6789,7 @@
         <v>40</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>348</v>
+        <v>40</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>40</v>
@@ -7130,25 +6825,25 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -7157,13 +6852,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>353</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7173,25 +6868,27 @@
         <v>49</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
       </c>
@@ -7215,10 +6912,10 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>356</v>
+        <v>40</v>
       </c>
       <c r="Y51" t="s" s="2">
         <v>40</v>
@@ -7239,7 +6936,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7251,56 +6948,58 @@
         <v>40</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>360</v>
+        <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>362</v>
+        <v>40</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>51</v>
+        <v>336</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7312,7 +7011,7 @@
         <v>40</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>365</v>
+        <v>40</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>40</v>
@@ -7348,1369 +7047,35 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>367</v>
+        <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>368</v>
+        <v>124</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>369</v>
+        <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM64" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM64">
+  <autoFilter ref="A1:AM52">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8720,7 +7085,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
